--- a/data/Texas_GDP_1997-2019.xlsx
+++ b/data/Texas_GDP_1997-2019.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\EnviroDev_Policy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECA7291-034D-4EFD-B0C4-25260CF6F794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD300D72-EF5B-47BC-8A4E-654D91F902A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -33,15 +25,15 @@
     <t>Year</t>
   </si>
   <si>
-    <t>TX_GDP</t>
+    <t>GDP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -76,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,7 +385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
